--- a/低碳日菜單.xlsx
+++ b/低碳日菜單.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thumbd12856\Desktop\Daily-Eating\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -317,6 +322,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -364,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,7 +628,7 @@
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -660,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -681,26 +689,26 @@
       </c>
       <c r="J3" s="2">
         <f>SUM(B1:B99)</f>
-        <v>243.01999999999998</v>
+        <v>240.91999999999996</v>
       </c>
       <c r="K3" s="2">
         <f>SUM(C1:C99)</f>
-        <v>130.30000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="L3" s="2">
         <f>SUM(D1:D99)</f>
-        <v>103.8</v>
+        <v>99.8</v>
       </c>
       <c r="M3" s="2">
         <f>SUM(E1:E99)</f>
-        <v>2316.88</v>
+        <v>2332.48</v>
       </c>
       <c r="N3" s="2">
         <f>SUM(F1:F99)</f>
         <v>289.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -720,7 +728,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,8 +748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -761,7 +768,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -781,24 +788,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C12" s="2">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="D12" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>310.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -818,7 +825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -826,12 +833,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>0</v>
@@ -846,7 +853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -866,7 +873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -886,24 +893,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>10</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C22" s="2">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="D22" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+        <v>310.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -911,8 +918,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/低碳日菜單.xlsx
+++ b/低碳日菜單.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="B22:E22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
